--- a/Adult Income/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_6331_9495__1_2 .xlsx
+++ b/Adult Income/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_6331_9495__1_2 .xlsx
@@ -502,16 +502,16 @@
         <v>31655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6729423326634499</v>
+        <v>0.6686067254128697</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00285022</v>
+        <v>0.00188915</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7728150882293305</v>
+        <v>0.7702295618947531</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00195766</v>
+        <v>0.00115504</v>
       </c>
     </row>
     <row r="3">
@@ -570,16 +570,16 @@
         <v>6331</v>
       </c>
       <c r="G4" t="n">
-        <v>0.250738808808422</v>
+        <v>0.1651207871095349</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00609888</v>
+        <v>0.00759532</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5709573574894264</v>
+        <v>0.5444649038887159</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00194152</v>
+        <v>0.00219428</v>
       </c>
     </row>
     <row r="5">
@@ -604,16 +604,16 @@
         <v>12662</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2491141537414063</v>
+        <v>0.166524749712667</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003661</v>
+        <v>0.00172195</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5704291352411849</v>
+        <v>0.5448885131951325</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00118425</v>
+        <v>0.00052662</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>9495</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2540027512804567</v>
+        <v>0.1641352100278811</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0060678</v>
+        <v>0.00386866</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5721252916465571</v>
+        <v>0.5442070326444239</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00193139</v>
+        <v>0.00114172</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>18990</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2618256669710218</v>
+        <v>0.1673916384857904</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00255102</v>
+        <v>0.00482267</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5745899042456885</v>
+        <v>0.5451580046092294</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00082379</v>
+        <v>0.00145669</v>
       </c>
     </row>
   </sheetData>
